--- a/excel/Michael-Bell.xlsx
+++ b/excel/Michael-Bell.xlsx
@@ -168,6 +168,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Carol Giles
+Book: Gifted and Gone: Proverbs, Quotations, Sayings and More
+Pages: 119
+Publisher: iUniverse, Inc. (May 9, 2004) 15 years
+Paperback: 12.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 11,712,130
+Genre: Quotation Reference Books and Philosophy
+Reviews: No reviews
+Link: http://tiny.cc/0fshbz</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E7" authorId="1">
       <text>
         <r>
@@ -178,10 +212,112 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>-started as a hobby
+          <t>Author: Charles Dobbins
+Book1: Through My Angel¿s Eyes: The Story of a Kal-a-tar
+Book2: Through Streams Of Time: Book Two Of The Kalatar Series 
+Pages: 108 and 228
+Publisher:  iUniverse, Inc. (June 2, 2003) 16 yrs and  iUniverse, Inc. (November 7, 2006) 13 yrs
+Paperback:  $10.95 / 15.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 21,614,994 and no ranking
+Genre: Supernatural Mysteries and no genre second book
+Reviews: good 1 review first book and 2nd no review since no genre
+Link 1st: http://tiny.cc/ymvhbz 
+Link 2nd: http://tiny.cc/bnvhbz
+-started as a hobby
 -published with iuniverse
 -marketing:full page ad in ny times
 -for grandkids could have//some people really enjoyed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Rev. Charles D. Smith
+Book: Life Through The Eyes of God 
+Pages: 62
+Publisher: Xulon Press (January 29, 2016) 3 years
+Paperback: $9.99
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: no genre = no ranking
+Genre: No genre
+Reviews: no reviews 
+Comment: 
+Link: http://tiny.cc/djshbz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Charlie Brough
+Book: Mama, I'm Coming Home
+Pages: 424
+Publisher: iUniverse (October 22, 2008) 11 yrs
+Paperback: $18.69
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 17,424,499
+Genre: Thriller &amp; Suspense Action Fiction
+Reviews: 17,424,499 and no reviews
+Link: http://tiny.cc/o4vhbz</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -587,13 +723,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,726 +1034,636 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A46:D46"/>
@@ -1626,6 +1672,96 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/excel/Michael-Bell.xlsx
+++ b/excel/Michael-Bell.xlsx
@@ -321,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="1">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,9 +329,177 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>published 1st book with xlibris
+          <t>Author:  Chester G. Thompson
+Book: The Farmer Family Album
+Pages: 68
+Publisher: iUniverse (April 29, 2016) 3 yrs
+Paperback: $14.99
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 10,604,755
+Genre: Christian Literature &amp; Fiction
+Reviews: 1 review 4 stars
+Link: http://tiny.cc/rexhbz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Cora Gilliam
+Book: Facing Tomorrow With Poetry 
+Pages: 108
+Publisher: iUniverse, Inc. (July 8, 2003) 16 years
+Paperback: $12.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 11,326,055
+Genre: American Poetry
+Reviews: 2 reviews
+Link: http://tiny.cc/5txhbz</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author: Craig Gutchow
+Book: The Chris Letters: From the Source
+Pages: 48
+Publisher: Balboa Press (September 20, 2012) almost 7 yrs
+Paperback: $8.99
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: no rank
+Genre: no genre featured
+Reviews: 1 review 5 stars
+Link: http://tiny.cc/5txhbz
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: David L. Bohmfalk 
+Book: The Crossbow and the Beret
+Pages: 288
+Publisher: iUniverse (December 4, 2015) almost 4 years
+Paperback: $17.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 10,224,145
+Genre: Historical Fantasy / Alternate History Science Fiction
+Reviews: 1 review
+Link: http://tiny.cc/dkyhbz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Dawna Dooley
+Book: You Came to Stay
+Pages: 42
+Publisher: Xlibris US (July 1, 2014) 5 years
+Paperback: $12.99
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: no rank
+Genre: no genre
+Reviews: no reviews no genre
+Link: http://tiny.cc/r4yhbz
+published 1st book with xlibris
 1."you came to stay"
 -writing another 3 books
 2.Papa went away
@@ -346,6 +514,122 @@
 -she was a preschool teacher before// work part time in a senior's home and housekeeping for a family
 -goal: get it out there to help people//use as a tool to make seniors happy//also earn even a little from the book can make her happy
 -can invest up to $2000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Dee Recore
+Book: Handprint on My Heart
+Pages: 218
+Publisher: iUniverse (January 29, 2013) 6 years
+Paperback: $15.95   Hard Cover: $25.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: no rank
+Genre: no genre 
+Reviews: 4 reviews
+Link: http://tiny.cc/5kzhbz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author: Demetrius Jefferson
+Book: Dreams
+Pages: 128
+Publisher: AuthorHouse (May 4, 2017) 2 years
+Paperback: $13.82
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 5,345,534 
+Genre: Suspense Thrillers / Literature &amp; Fiction (Books)
+Reviews: 1 review 5 stars
+Link: http://tiny.cc/eqzhbz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrong author: george carpetto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:  George Carpetto
+Book: Fractured Renaissance Tales of Old: The Population Plague
+Pages: 171
+Publisher: iUniverse (April 19, 2001) 18 yrs
+Paperback: $12.95
+Inspiration: 
+Sales: 
+Price: 
+Royalties: 
+Cover Design: 
+Editing: 
+Website: 
+Social MS: 
+SEO: 
+International Book Rights: 
+Author Support Mngr: 
+Amazon Manager: 
+Rank: 
+Genre: 
+Reviews: 
+Link: http://tiny.cc/9szhbz</t>
         </r>
       </text>
     </comment>
@@ -689,7 +973,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +992,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -721,15 +1011,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1034,636 +1327,726 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A46:D46"/>
@@ -1672,96 +2055,6 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
